--- a/analysis/Figure1-Heart-Disease-Plot.xlsx
+++ b/analysis/Figure1-Heart-Disease-Plot.xlsx
@@ -1,82 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8C3F3-6513-42C2-BEDC-4E2688E7769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Immigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-white Canada-born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-white immigrant (0-9 years in Canada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-white immigrant (10+ years in Canada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Canada-born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White immigrant  (0-9 years in Canada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White immigrant (10+ years in Canada)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>Immigration</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Non-white Canada-born</t>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
+  </si>
+  <si>
+    <t>White Canada-born</t>
+  </si>
+  <si>
+    <t>Non-white established immigrant</t>
+  </si>
+  <si>
+    <t>White recent immigrant</t>
+  </si>
+  <si>
+    <t>White established immigrant</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Non-white recent immigrant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +119,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,14 +409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,239 +456,239 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2">
+        <v>2.25</v>
+      </c>
+      <c r="C2">
+        <v>2.79</v>
+      </c>
+      <c r="D2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E2">
+        <v>2.72</v>
+      </c>
+      <c r="F2">
+        <v>2.65</v>
+      </c>
+      <c r="G2">
+        <v>2.6</v>
+      </c>
+      <c r="H2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I2">
+        <v>1.04</v>
+      </c>
+      <c r="J2">
+        <v>1.46</v>
+      </c>
+      <c r="K2">
+        <v>-35.28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1.82</v>
+      </c>
+      <c r="C3">
+        <v>1.26</v>
+      </c>
+      <c r="D3">
+        <v>1.64</v>
+      </c>
+      <c r="E3">
+        <v>1.53</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
+      </c>
+      <c r="H3">
+        <v>1.05</v>
+      </c>
+      <c r="I3">
+        <v>1.19</v>
+      </c>
+      <c r="J3">
+        <v>1.42</v>
+      </c>
+      <c r="K3">
+        <v>-21.97</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-35.28</v>
-      </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3.22</v>
+      </c>
+      <c r="C4">
+        <v>3.85</v>
+      </c>
+      <c r="D4">
+        <v>3.64</v>
+      </c>
+      <c r="E4">
+        <v>4.26</v>
+      </c>
+      <c r="F4">
+        <v>3.82</v>
+      </c>
+      <c r="G4">
+        <v>3.89</v>
+      </c>
+      <c r="H4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I4">
+        <v>3.81</v>
+      </c>
+      <c r="J4">
+        <v>3.87</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>5.33</v>
+      </c>
+      <c r="C5">
+        <v>5.31</v>
+      </c>
+      <c r="D5">
+        <v>5.12</v>
+      </c>
+      <c r="E5">
+        <v>5.18</v>
+      </c>
+      <c r="F5">
+        <v>5.32</v>
+      </c>
+      <c r="G5">
+        <v>5.38</v>
+      </c>
+      <c r="H5">
+        <v>5.43</v>
+      </c>
+      <c r="I5">
+        <v>5.25</v>
+      </c>
+      <c r="J5">
+        <v>5.27</v>
+      </c>
+      <c r="K5">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-21.97</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D6">
+        <v>1.71</v>
+      </c>
+      <c r="E6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F6">
+        <v>2.15</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.27</v>
+      </c>
+      <c r="K6">
+        <v>-42.3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-42.3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>9.66</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9.01</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9.32</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>9.11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>8.56</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>9.27</v>
       </c>
-      <c r="H7" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="H7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I7">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="J7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K7">
         <v>-11.63</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>